--- a/attached_assets/PROVEEDORES_LOGISTICOS_1765559276189.xlsx
+++ b/attached_assets/PROVEEDORES_LOGISTICOS_1765559276189.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abenincasa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\proyectos\clone_ag__prueba_pytoflutter_importayaia_v2\referencia-ImportaYAia-python\attached_assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE4509E-C595-494B-8024-E048879DEDB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B14504-ECC7-487F-816F-BB8F47DD1E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C12A51F8-3422-419B-9BE2-4D2B847694A7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C12A51F8-3422-419B-9BE2-4D2B847694A7}"/>
   </bookViews>
   <sheets>
     <sheet name="MARITIMO FCL" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -324,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,9 +653,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C82558E-0D5A-4D0E-B0FC-70F12505ABC8}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -815,399 +807,401 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C59586-D1FD-4F18-98D2-45A8D094DDA4}">
-  <dimension ref="B1:C8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="69.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="65.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="1:2" ht="65.400000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="1:2" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F51C398-045E-4E5A-9B20-4599DCE1B651}">
-  <dimension ref="B1:C38"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="72.77734375" customWidth="1"/>
-    <col min="3" max="3" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="65.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="B2" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="1" t="s">
+      <c r="B4" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="1" t="s">
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="1" t="s">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="1" t="s">
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="1" t="s">
+      <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1" t="s">
+      <c r="B9" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1" t="s">
+      <c r="B10" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="1" t="s">
+      <c r="B13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="1" t="s">
+      <c r="B14" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="1" t="s">
+      <c r="B15" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="1" t="s">
+      <c r="B16" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1" t="s">
+      <c r="B17" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="1" t="s">
+      <c r="B18" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
+      <c r="B19" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="1" t="s">
+      <c r="B20" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="1" t="s">
+      <c r="B21" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="1" t="s">
+      <c r="B22" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="1" t="s">
+      <c r="B23" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="1" t="s">
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="1" t="s">
+      <c r="B25" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="1" t="s">
+      <c r="B26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="1" t="s">
+      <c r="B27" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="1" t="s">
+      <c r="B28" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="1" t="s">
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="1" t="s">
+      <c r="B30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="1" t="s">
+      <c r="B31" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="1" t="s">
+      <c r="B32" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="1" t="s">
+      <c r="B33" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="1" t="s">
+      <c r="B34" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="1" t="s">
+      <c r="B35" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="1" t="s">
+      <c r="B36" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="1" t="s">
+      <c r="B37" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>